--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID #</t>
   </si>
@@ -49,16 +49,29 @@
   </si>
   <si>
     <t>Data Model for Semantic Data</t>
+  </si>
+  <si>
+    <t>COMPLETED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete hooking Parse into Import with Data Model </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,9 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,9 +415,10 @@
     <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" customWidth="1"/>
     <col min="4" max="4" width="73.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,12 +432,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>42312</v>
+        <v>42678</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -430,47 +446,62 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>42312</v>
+        <v>42678</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>42312</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3">
+        <v>42678</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>42312</v>
+        <v>42678</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42687</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID #</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t xml:space="preserve">Complete hooking Parse into Import with Data Model </t>
+  </si>
+  <si>
+    <t>Fix LinkdCSV Testcase fails</t>
+  </si>
+  <si>
+    <t>Fix nulls instead of separator in some fields in CSV store</t>
+  </si>
+  <si>
+    <t>Separator sometimes in DataStoreSV is null</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -97,11 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,14 +461,18 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>42678</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -489,14 +507,48 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>42687</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>42693</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>42693</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>ID #</t>
   </si>
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +84,13 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -115,7 +122,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +427,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,28 +529,35 @@
       </c>
     </row>
     <row r="7" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>42693</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>42693</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>ID #</t>
   </si>
@@ -66,7 +66,13 @@
     <t>Separator sometimes in DataStoreSV is null</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Unicode character incorrectly written to DataStoreSV</t>
+  </si>
+  <si>
+    <t>appears as ?</t>
+  </si>
+  <si>
+    <t>Rollback partial written record when exception thrown</t>
   </si>
 </sst>
 </file>
@@ -116,13 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -561,9 +568,32 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42694</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>42694</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID #</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>Rollback partial written record when exception thrown</t>
+  </si>
+  <si>
+    <t>Clean up JSON store errors</t>
+  </si>
+  <si>
+    <t>DataStore/_Test12</t>
   </si>
 </sst>
 </file>
@@ -431,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,17 +589,31 @@
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>42694</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>42697</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID #</t>
   </si>
@@ -599,20 +599,25 @@
         <v>18</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>42697</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ID #</t>
   </si>
@@ -79,13 +79,16 @@
   </si>
   <si>
     <t>DataStore/_Test12</t>
+  </si>
+  <si>
+    <t>Web Server for DataStore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +106,12 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -128,7 +137,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -136,6 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +628,17 @@
       </c>
       <c r="E11" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>42701</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID #</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Web Server for DataStore</t>
+  </si>
+  <si>
+    <t>Start Issues section for bugs</t>
   </si>
 </sst>
 </file>
@@ -447,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +642,17 @@
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>42702</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>ID #</t>
   </si>
@@ -140,14 +140,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -453,7 +452,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,19 +586,21 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>42694</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -640,7 +641,7 @@
       <c r="B12" s="1">
         <v>42701</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
     </row>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>ID #</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Start Issues section for bugs</t>
+  </si>
+  <si>
+    <t>Fix Test Scripts bug with echoing test totals</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,6 +657,21 @@
       </c>
       <c r="C13" s="4" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42708</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>ID #</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Fix Test Scripts bug with echoing test totals</t>
+  </si>
+  <si>
+    <t>Finish threading Select from CmdLine to DataStore</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,6 +674,21 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42720</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ID #</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Finish threading Select from CmdLine to DataStore</t>
+  </si>
+  <si>
+    <t>Complete Implementing Linear Index into DataStore</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -154,6 +157,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,6 +694,17 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7">
+        <v>42722</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/sprints/technical backlog.xlsx
+++ b/sprints/technical backlog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>ID #</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>Complete Implementing Linear Index into DataStore</t>
+  </si>
+  <si>
+    <t>Complete Testing in cmdline for sorting</t>
+  </si>
+  <si>
+    <t>Complete Documentation for Sort</t>
   </si>
 </sst>
 </file>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -158,6 +164,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A17" sqref="A17:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +713,30 @@
       <c r="C16" s="4" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8">
+        <v>42376</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8">
+        <v>42376</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
